--- a/src/ACAT/assessment_results/COMP-315_FA24_01_outcomes.xlsx
+++ b/src/ACAT/assessment_results/COMP-315_FA24_01_outcomes.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
         <v>5</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>4</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>5</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
